--- a/SchedulingData/dynamic14/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_15.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>209.28</v>
+        <v>225.8</v>
       </c>
       <c r="D2" t="n">
-        <v>261.56</v>
+        <v>265.26</v>
       </c>
       <c r="E2" t="n">
-        <v>15.384</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="3">
@@ -485,207 +485,207 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>272.02</v>
+        <v>210.62</v>
       </c>
       <c r="D3" t="n">
-        <v>327.02</v>
+        <v>296.66</v>
       </c>
       <c r="E3" t="n">
-        <v>11.868</v>
+        <v>16.244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>263.92</v>
+        <v>265.26</v>
       </c>
       <c r="D4" t="n">
-        <v>333.66</v>
+        <v>328.66</v>
       </c>
       <c r="E4" t="n">
-        <v>12.264</v>
+        <v>10.884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>327.02</v>
+        <v>219.86</v>
       </c>
       <c r="D5" t="n">
-        <v>381.18</v>
+        <v>263.28</v>
       </c>
       <c r="E5" t="n">
-        <v>9.052</v>
+        <v>16.712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>236.66</v>
+        <v>296.66</v>
       </c>
       <c r="D6" t="n">
-        <v>301.76</v>
+        <v>350.56</v>
       </c>
       <c r="E6" t="n">
-        <v>11.504</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>333.66</v>
+        <v>228.3</v>
       </c>
       <c r="D7" t="n">
-        <v>384.08</v>
+        <v>298.2</v>
       </c>
       <c r="E7" t="n">
-        <v>9.352</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>261.56</v>
+        <v>247.22</v>
       </c>
       <c r="D8" t="n">
-        <v>338.48</v>
+        <v>324.82</v>
       </c>
       <c r="E8" t="n">
-        <v>10.792</v>
+        <v>10.168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>206.3</v>
+        <v>263.28</v>
       </c>
       <c r="D9" t="n">
-        <v>258.4</v>
+        <v>333.48</v>
       </c>
       <c r="E9" t="n">
-        <v>15.18</v>
+        <v>12.292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>381.18</v>
+        <v>324.82</v>
       </c>
       <c r="D10" t="n">
-        <v>422.16</v>
+        <v>377.42</v>
       </c>
       <c r="E10" t="n">
-        <v>6.084</v>
+        <v>6.528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>338.48</v>
+        <v>377.42</v>
       </c>
       <c r="D11" t="n">
-        <v>381.08</v>
+        <v>431.84</v>
       </c>
       <c r="E11" t="n">
-        <v>8.151999999999999</v>
+        <v>2.216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>384.08</v>
+        <v>431.84</v>
       </c>
       <c r="D12" t="n">
-        <v>425.14</v>
+        <v>514.21</v>
       </c>
       <c r="E12" t="n">
-        <v>6.376</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>301.76</v>
+        <v>514.21</v>
       </c>
       <c r="D13" t="n">
-        <v>367.7</v>
+        <v>585.47</v>
       </c>
       <c r="E13" t="n">
-        <v>8.02</v>
+        <v>27.024</v>
       </c>
     </row>
     <row r="14">
@@ -694,74 +694,74 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>258.4</v>
+        <v>298.2</v>
       </c>
       <c r="D14" t="n">
-        <v>309.36</v>
+        <v>369.3</v>
       </c>
       <c r="E14" t="n">
-        <v>11.704</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>309.36</v>
+        <v>585.47</v>
       </c>
       <c r="D15" t="n">
-        <v>384.16</v>
+        <v>620.53</v>
       </c>
       <c r="E15" t="n">
-        <v>7.324</v>
+        <v>24.648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>367.7</v>
+        <v>328.66</v>
       </c>
       <c r="D16" t="n">
-        <v>402.76</v>
+        <v>370.76</v>
       </c>
       <c r="E16" t="n">
-        <v>5.644</v>
+        <v>7.804</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>422.16</v>
+        <v>333.48</v>
       </c>
       <c r="D17" t="n">
-        <v>470.3</v>
+        <v>388.48</v>
       </c>
       <c r="E17" t="n">
-        <v>3.38</v>
+        <v>8.912000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -770,60 +770,60 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>425.14</v>
+        <v>239.08</v>
       </c>
       <c r="D18" t="n">
-        <v>460.2</v>
+        <v>294.06</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>12.264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>211.82</v>
+        <v>369.3</v>
       </c>
       <c r="D19" t="n">
-        <v>257.68</v>
+        <v>423.46</v>
       </c>
       <c r="E19" t="n">
-        <v>14.872</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>402.76</v>
+        <v>423.46</v>
       </c>
       <c r="D20" t="n">
-        <v>482.96</v>
+        <v>468.66</v>
       </c>
       <c r="E20" t="n">
-        <v>1.224</v>
+        <v>2.644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>482.96</v>
+        <v>468.66</v>
       </c>
       <c r="D21" t="n">
-        <v>557.3099999999999</v>
+        <v>564.67</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -842,173 +842,173 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>470.3</v>
+        <v>564.67</v>
       </c>
       <c r="D22" t="n">
-        <v>503.74</v>
+        <v>608.87</v>
       </c>
       <c r="E22" t="n">
-        <v>0.676</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>503.74</v>
+        <v>370.76</v>
       </c>
       <c r="D23" t="n">
-        <v>603.6900000000001</v>
+        <v>425.24</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>384.16</v>
+        <v>294.06</v>
       </c>
       <c r="D24" t="n">
-        <v>424.36</v>
+        <v>337.4</v>
       </c>
       <c r="E24" t="n">
-        <v>3.944</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>557.3099999999999</v>
+        <v>425.24</v>
       </c>
       <c r="D25" t="n">
-        <v>601.15</v>
+        <v>512.24</v>
       </c>
       <c r="E25" t="n">
-        <v>27.296</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>424.36</v>
+        <v>512.24</v>
       </c>
       <c r="D26" t="n">
-        <v>467.86</v>
+        <v>588.49</v>
       </c>
       <c r="E26" t="n">
-        <v>1.224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>467.86</v>
+        <v>337.4</v>
       </c>
       <c r="D27" t="n">
-        <v>537.3099999999999</v>
+        <v>379.56</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>6.964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>381.08</v>
+        <v>350.56</v>
       </c>
       <c r="D28" t="n">
-        <v>424.58</v>
+        <v>410.56</v>
       </c>
       <c r="E28" t="n">
-        <v>5.912</v>
+        <v>7.604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>257.68</v>
+        <v>410.56</v>
       </c>
       <c r="D29" t="n">
-        <v>336.48</v>
+        <v>475.32</v>
       </c>
       <c r="E29" t="n">
-        <v>10.112</v>
+        <v>5.228</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>603.6900000000001</v>
+        <v>379.56</v>
       </c>
       <c r="D30" t="n">
-        <v>680.89</v>
+        <v>422.58</v>
       </c>
       <c r="E30" t="n">
-        <v>26.92</v>
+        <v>3.792</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>336.48</v>
+        <v>620.53</v>
       </c>
       <c r="D31" t="n">
-        <v>398.88</v>
+        <v>673.87</v>
       </c>
       <c r="E31" t="n">
-        <v>5.492</v>
+        <v>21.944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>680.89</v>
+        <v>422.58</v>
       </c>
       <c r="D32" t="n">
-        <v>731.39</v>
+        <v>498.86</v>
       </c>
       <c r="E32" t="n">
-        <v>24.5</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>424.58</v>
+        <v>498.86</v>
       </c>
       <c r="D33" t="n">
-        <v>511.98</v>
+        <v>594.83</v>
       </c>
       <c r="E33" t="n">
-        <v>0.752</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1074,169 +1074,169 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>511.98</v>
+        <v>588.49</v>
       </c>
       <c r="D34" t="n">
-        <v>592.38</v>
+        <v>636.5700000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>592.38</v>
+        <v>388.48</v>
       </c>
       <c r="D35" t="n">
-        <v>659.04</v>
+        <v>453.22</v>
       </c>
       <c r="E35" t="n">
-        <v>26.024</v>
+        <v>5.048</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>398.88</v>
+        <v>475.32</v>
       </c>
       <c r="D36" t="n">
-        <v>449.78</v>
+        <v>528.66</v>
       </c>
       <c r="E36" t="n">
-        <v>2.532</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>460.2</v>
+        <v>673.87</v>
       </c>
       <c r="D37" t="n">
-        <v>543.2</v>
+        <v>744.75</v>
       </c>
       <c r="E37" t="n">
-        <v>0.28</v>
+        <v>19.436</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>543.2</v>
+        <v>453.22</v>
       </c>
       <c r="D38" t="n">
-        <v>609.64</v>
+        <v>537.22</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>659.04</v>
+        <v>537.22</v>
       </c>
       <c r="D39" t="n">
-        <v>690.52</v>
+        <v>643.02</v>
       </c>
       <c r="E39" t="n">
-        <v>23.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>731.39</v>
+        <v>608.87</v>
       </c>
       <c r="D40" t="n">
-        <v>799.75</v>
+        <v>671.27</v>
       </c>
       <c r="E40" t="n">
-        <v>21.764</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>537.3099999999999</v>
+        <v>594.83</v>
       </c>
       <c r="D41" t="n">
-        <v>598.41</v>
+        <v>655.99</v>
       </c>
       <c r="E41" t="n">
-        <v>26.08</v>
+        <v>26.544</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>799.75</v>
+        <v>643.02</v>
       </c>
       <c r="D42" t="n">
-        <v>868.9299999999999</v>
+        <v>699.3</v>
       </c>
       <c r="E42" t="n">
-        <v>18.956</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="43">
@@ -1245,36 +1245,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>609.64</v>
+        <v>655.99</v>
       </c>
       <c r="D43" t="n">
-        <v>677.74</v>
+        <v>706.51</v>
       </c>
       <c r="E43" t="n">
-        <v>26.36</v>
+        <v>23.632</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>598.41</v>
+        <v>706.51</v>
       </c>
       <c r="D44" t="n">
-        <v>651.53</v>
+        <v>756.8099999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>22.908</v>
+        <v>21.212</v>
       </c>
     </row>
   </sheetData>
